--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BD/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BD/10/seed1/result_data_RandomForest.xlsx
@@ -488,13 +488,13 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>9.129199999999992</v>
+        <v>8.947999999999992</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.719099999999997</v>
+        <v>-7.641200000000001</v>
       </c>
     </row>
     <row r="5">
@@ -530,7 +530,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.375</v>
+        <v>5.511200000000003</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -606,7 +606,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.916799999999996</v>
+        <v>-5.813599999999999</v>
       </c>
     </row>
     <row r="13">
@@ -656,7 +656,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>4.967499999999998</v>
+        <v>5.070199999999998</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -690,7 +690,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.974499999999995</v>
+        <v>-8.992899999999993</v>
       </c>
     </row>
     <row r="19">
@@ -704,7 +704,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.501499999999989</v>
+        <v>-8.544599999999994</v>
       </c>
     </row>
     <row r="20">
@@ -718,7 +718,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.731999999999992</v>
+        <v>-8.542399999999988</v>
       </c>
     </row>
     <row r="21">
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.921300000000002</v>
+        <v>5.958200000000004</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -838,7 +838,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.272200000000003</v>
+        <v>5.166800000000004</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -872,7 +872,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-7.478799999999996</v>
+        <v>-7.414899999999994</v>
       </c>
     </row>
     <row r="32">
@@ -880,7 +880,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.749799999999997</v>
+        <v>6.502599999999997</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -992,13 +992,13 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.0602</v>
+        <v>9.179900000000002</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-8.795199999999998</v>
+        <v>-8.865599999999995</v>
       </c>
     </row>
     <row r="41">
@@ -1026,7 +1026,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.803199999999993</v>
+        <v>-8.667899999999998</v>
       </c>
     </row>
     <row r="43">
@@ -1096,7 +1096,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.744500000000003</v>
+        <v>-7.588499999999997</v>
       </c>
     </row>
     <row r="48">
@@ -1110,7 +1110,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.466299999999997</v>
+        <v>-7.403199999999997</v>
       </c>
     </row>
     <row r="49">
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.4996</v>
+        <v>5.245899999999997</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1230,7 +1230,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.734299999999994</v>
+        <v>4.790299999999996</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1320,7 +1320,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-6.737799999999994</v>
+        <v>-6.728899999999997</v>
       </c>
     </row>
     <row r="64">
@@ -1334,7 +1334,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.102499999999995</v>
+        <v>-7.288199999999993</v>
       </c>
     </row>
     <row r="65">
@@ -1356,7 +1356,7 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.933299999999991</v>
+        <v>5.809699999999996</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1502,7 +1502,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.640499999999998</v>
+        <v>-7.8152</v>
       </c>
     </row>
     <row r="77">
@@ -1572,7 +1572,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.635599999999996</v>
+        <v>-7.6144</v>
       </c>
     </row>
     <row r="82">
@@ -1684,7 +1684,7 @@
         <v>-14.65</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.150300000000001</v>
+        <v>-8.290299999999997</v>
       </c>
     </row>
     <row r="90">
@@ -1754,7 +1754,7 @@
         <v>-9.49</v>
       </c>
       <c r="D94" t="n">
-        <v>-6.017199999999995</v>
+        <v>-5.942899999999998</v>
       </c>
     </row>
     <row r="95">
@@ -1832,7 +1832,7 @@
         <v>-21.08</v>
       </c>
       <c r="B100" t="n">
-        <v>5.1399</v>
+        <v>4.858699999999999</v>
       </c>
       <c r="C100" t="n">
         <v>-13.95</v>
